--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/20/seed5/result_data_RandomForest.xlsx
@@ -583,7 +583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.68979999999999</v>
+        <v>-21.74759999999999</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.38679999999999</v>
+        <v>-21.402</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.6384</v>
+        <v>-21.65270000000001</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.018</v>
+        <v>-21.87449999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.95</v>
+        <v>-21.9481</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.77200000000001</v>
+        <v>-21.73320000000001</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.3568</v>
+        <v>-21.29839999999998</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.01270000000001</v>
+        <v>-20.32249999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.83839999999998</v>
+        <v>-19.98009999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.8289</v>
+        <v>-21.8788</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.9649</v>
+        <v>-21.83759999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.02210000000001</v>
+        <v>-22.02780000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.01530000000001</v>
+        <v>-22.0272</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.42519999999997</v>
+        <v>-21.49089999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.68939999999997</v>
+        <v>-21.66329999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.6919</v>
+        <v>-21.6962</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.12509999999999</v>
+        <v>-20.11509999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.66439999999999</v>
+        <v>-21.58209999999998</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.8944</v>
+        <v>-21.8572</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.49669999999998</v>
+        <v>-20.65999999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.41050000000001</v>
+        <v>-21.4556</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.8225</v>
+        <v>-21.77220000000001</v>
       </c>
       <c r="B99" t="n">
         <v>5.08</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.26379999999998</v>
+        <v>-21.26339999999999</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-19.84079999999998</v>
+        <v>-19.87809999999999</v>
       </c>
       <c r="B105" t="n">
         <v>9.01</v>
